--- a/src/XlsxCompare.Tests/left.xlsx
+++ b/src/XlsxCompare.Tests/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\home\rdavis\projects\XlsxCompare\src\XlsxCompare.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC52AF-22B9-49B4-A098-DE0A87A2120B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52E05C-320D-4491-8593-7180CE9FF10C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35205" yWindow="4455" windowWidth="21600" windowHeight="11385" xr2:uid="{4E9CC7C5-0FCF-48CB-8EB0-0CACF454BF10}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
